--- a/testcases/movies-testCases-noOutput 1.2.xlsx
+++ b/testcases/movies-testCases-noOutput 1.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lucchamberland/Downloads/luc/Karma AI/movies/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\personal\chatbot_july_2019\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F629601-CF1F-074B-BF2F-6E791EB2AFAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{99DB71AA-3563-4440-A69D-B145A9668CEC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
+    <workbookView xWindow="1670" yWindow="3180" windowWidth="17970" windowHeight="8450" xr2:uid="{80C491B5-5D65-3F4D-ACB3-3CB051058070}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="58">
   <si>
     <t>Test case #</t>
   </si>
@@ -243,7 +242,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -643,23 +642,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{145048B2-EEA9-0B44-A139-AC3080D42446}">
-  <dimension ref="A1:M109"/>
+  <dimension ref="A1:L109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="142" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C7" zoomScale="142" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="17" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.6875" style="3" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="38.6640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" customWidth="1"/>
-    <col min="12" max="12" width="41.1640625" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="38.6875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.1875" customWidth="1"/>
+    <col min="12" max="12" width="41.1875" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -680,7 +679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="29" customHeight="1">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -701,7 +700,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -722,7 +721,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="26" customHeight="1">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -743,7 +742,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="30.75">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -764,7 +763,7 @@
         <v>58000000</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="36" customHeight="1">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -785,7 +784,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30.75">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -806,7 +805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -819,13 +818,15 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="F8" s="1"/>
       <c r="L8" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="32" customHeight="1">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -844,7 +845,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="39" customHeight="1">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -863,7 +864,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -882,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="30.75">
       <c r="A12" s="7">
         <v>11</v>
       </c>
@@ -899,7 +900,7 @@
       <c r="F12" s="1"/>
       <c r="L12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="7">
         <v>12</v>
       </c>
@@ -918,7 +919,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="30.75">
       <c r="A14" s="7">
         <v>13</v>
       </c>
@@ -937,7 +938,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="7">
         <v>14</v>
       </c>
@@ -954,7 +955,7 @@
       <c r="F15" s="1"/>
       <c r="L15" s="1"/>
     </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="7">
         <v>15</v>
       </c>
@@ -971,7 +972,7 @@
       <c r="F16" s="1"/>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="7">
         <v>16</v>
       </c>
@@ -990,12 +991,12 @@
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="45.75">
       <c r="A22" s="7"/>
       <c r="B22" s="6" t="s">
         <v>25</v>
@@ -1010,7 +1011,7 @@
       <c r="F22" s="1"/>
       <c r="L22" s="1"/>
     </row>
-    <row r="23" spans="1:12" ht="51" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="45.75">
       <c r="A23" s="1"/>
       <c r="B23" s="2" t="s">
         <v>32</v>
@@ -1025,7 +1026,7 @@
       <c r="F23" s="1"/>
       <c r="L23" s="1"/>
     </row>
-    <row r="24" spans="1:12" ht="34" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="30.75">
       <c r="A24" s="7"/>
       <c r="B24" s="6" t="s">
         <v>28</v>
@@ -1040,7 +1041,7 @@
       <c r="F24" s="1"/>
       <c r="L24" s="1"/>
     </row>
-    <row r="109" spans="10:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="10:10">
       <c r="J109" s="3"/>
     </row>
   </sheetData>
